--- a/1.基本設計書/1.画面一覧・画面遷移図/画面遷移図.xlsx
+++ b/1.基本設計書/1.画面一覧・画面遷移図/画面遷移図.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24715"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CBD479C-249C-49D3-8189-D49589725B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FF6E757-0139-4328-96B4-733E6EC6F245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>画面遷移図</t>
   </si>
@@ -63,28 +63,6 @@
   </si>
   <si>
     <t>修正日</t>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-  </si>
-  <si>
-    <t>顧客情報
-登録画面</t>
-  </si>
-  <si>
-    <t>メインメニュー</t>
-  </si>
-  <si>
-    <t>顧客情報
-一覧・表示画面</t>
-  </si>
-  <si>
-    <t>顧客情報
-更新画面</t>
-  </si>
-  <si>
-    <t>顧客情報
-消去画面</t>
   </si>
 </sst>
 </file>
@@ -161,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -283,29 +261,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -365,33 +325,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -449,8 +382,20 @@
     <xf numFmtId="56" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1643,6 +1588,1221 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AC0863-8946-415D-B263-BBBA900BEB35}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CD2F52F2-06FB-4C3E-8901-218EDA893D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="495300"/>
+          <a:ext cx="1362075" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>ログイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD727C2-DB11-4201-8440-463C5D0A7205}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{44AC0863-8946-415D-B263-BBBA900BEB35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="1200150"/>
+          <a:ext cx="1362075" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>顧客情報</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="四角形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71056CEB-1BB3-4221-97FE-C4F10A985848}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6FD727C2-DB11-4201-8440-463C5D0A7205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="1543050"/>
+          <a:ext cx="1362075" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>メインメニュー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7518C5-951D-475D-A267-137CEAC857E9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{71056CEB-1BB3-4221-97FE-C4F10A985848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="2762250"/>
+          <a:ext cx="1362075" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>顧客情報</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="四角形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A5C685-22B5-4E68-A0CE-98C2C204C4D4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EB7518C5-951D-475D-A267-137CEAC857E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="2743200"/>
+          <a:ext cx="1362075" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>顧客情報</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>一覧・表示画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="四角形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0E33C0-2844-44BB-A49D-2AAA05A31123}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{50A5C685-22B5-4E68-A0CE-98C2C204C4D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524250" y="4114800"/>
+          <a:ext cx="1362075" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>顧客情報</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>編集画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="四角形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C77EB7-5095-4675-AFA5-E026D895BF7C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FD0E33C0-2844-44BB-A49D-2AAA05A31123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429250" y="4152900"/>
+          <a:ext cx="1362075" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>顧客情報</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>消去画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1945,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E9012C-2134-4377-B2E3-8016B874B93B}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="BA2" sqref="BA2:BF2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33:Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
@@ -2853,7 +4013,7 @@
       <c r="M31" s="9"/>
       <c r="N31" s="10"/>
       <c r="O31" s="15">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
@@ -3048,8 +4208,8 @@
   </sheetPr>
   <dimension ref="A1:BQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BA2" sqref="BA2:BF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
@@ -3058,78 +4218,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="13.5" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="36" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="36" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="42" t="s">
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="36" t="s">
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="42" t="s">
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="43"/>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43"/>
-      <c r="BE1" s="43"/>
-      <c r="BF1" s="44"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="35"/>
       <c r="BG1" s="2"/>
       <c r="BH1" s="2"/>
       <c r="BI1" s="2"/>
@@ -3143,75 +4303,75 @@
       <c r="BQ1" s="2"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="36" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="48">
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="39">
         <v>44505</v>
       </c>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="36" t="s">
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="48">
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="39">
         <f>表紙!O31</f>
-        <v>44517</v>
+        <v>44518</v>
       </c>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="44"/>
+      <c r="BB2" s="34"/>
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="34"/>
+      <c r="BF2" s="35"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2"/>
       <c r="BI2" s="2"/>
@@ -3307,16 +4467,14 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
-      <c r="U4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="23"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
     </row>
     <row r="5" spans="1:69" ht="13.5" customHeight="1">
       <c r="C5" s="6"/>
@@ -3330,24 +4488,24 @@
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="26"/>
-    </row>
-    <row r="6" spans="1:69">
-      <c r="U6" s="27"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="29"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+    </row>
+    <row r="6" spans="1:69" ht="13.5" customHeight="1">
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1">
       <c r="Q7" s="7"/>
@@ -3359,320 +4517,841 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
     </row>
-    <row r="8" spans="1:69">
-      <c r="G8" s="5"/>
-      <c r="H8" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="23"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-    </row>
-    <row r="9" spans="1:69">
+    <row r="8" spans="1:69" ht="13.5" customHeight="1">
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="41"/>
+      <c r="AL8" s="41"/>
+      <c r="AM8" s="41"/>
+      <c r="AN8" s="41"/>
+    </row>
+    <row r="9" spans="1:69" ht="13.5" customHeight="1">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26"/>
-    </row>
-    <row r="10" spans="1:69">
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
-      <c r="U10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="23"/>
-    </row>
-    <row r="11" spans="1:69">
-      <c r="U11" s="24"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="26"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
+    </row>
+    <row r="10" spans="1:69" ht="13.5" customHeight="1">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+    </row>
+    <row r="11" spans="1:69" ht="13.5" customHeight="1">
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
     </row>
     <row r="12" spans="1:69" ht="13.5" customHeight="1">
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="29"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="41"/>
+      <c r="AL12" s="41"/>
+      <c r="AM12" s="41"/>
+      <c r="AN12" s="41"/>
     </row>
     <row r="13" spans="1:69" ht="13.5" customHeight="1">
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
     </row>
     <row r="14" spans="1:69" ht="13.5" customHeight="1">
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="41"/>
+      <c r="AN14" s="41"/>
     </row>
     <row r="15" spans="1:69" ht="14.25" customHeight="1">
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="41"/>
+      <c r="AL15" s="41"/>
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="41"/>
     </row>
     <row r="16" spans="1:69" ht="14.25" customHeight="1">
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-    </row>
-    <row r="17" spans="15:44">
-      <c r="O17" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="23"/>
-      <c r="AA17" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="23"/>
-    </row>
-    <row r="18" spans="15:44" ht="13.5" customHeight="1">
-      <c r="O18" s="24"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="26"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="26"/>
-    </row>
-    <row r="19" spans="15:44" ht="13.5" customHeight="1">
-      <c r="O19" s="27"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="29"/>
-    </row>
-    <row r="20" spans="15:44">
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-    </row>
-    <row r="21" spans="15:44" ht="13.5" customHeight="1"/>
-    <row r="25" spans="15:44" ht="13.5" customHeight="1">
-      <c r="V25" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="23"/>
-      <c r="AG25" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH25" s="22"/>
-      <c r="AI25" s="22"/>
-      <c r="AJ25" s="22"/>
-      <c r="AK25" s="22"/>
-      <c r="AL25" s="22"/>
-      <c r="AM25" s="22"/>
-      <c r="AN25" s="23"/>
-    </row>
-    <row r="26" spans="15:44" ht="13.5" customHeight="1">
-      <c r="V26" s="24"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="26"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="26"/>
-    </row>
-    <row r="27" spans="15:44" ht="13.5" customHeight="1">
-      <c r="V27" s="27"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="29"/>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="28"/>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="28"/>
-      <c r="AN27" s="29"/>
-    </row>
-    <row r="28" spans="15:44" ht="13.5" customHeight="1">
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="6"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="41"/>
+      <c r="AM16" s="41"/>
+      <c r="AN16" s="41"/>
+    </row>
+    <row r="17" spans="6:44" ht="13.5" customHeight="1">
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="41"/>
+      <c r="AM17" s="41"/>
+      <c r="AN17" s="41"/>
+    </row>
+    <row r="18" spans="6:44" ht="13.5" customHeight="1">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="41"/>
+      <c r="AM18" s="41"/>
+      <c r="AN18" s="41"/>
+    </row>
+    <row r="19" spans="6:44" ht="13.5" customHeight="1">
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="41"/>
+      <c r="AM19" s="41"/>
+      <c r="AN19" s="41"/>
+    </row>
+    <row r="20" spans="6:44">
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="41"/>
+    </row>
+    <row r="21" spans="6:44" ht="13.5" customHeight="1">
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
+      <c r="AK21" s="41"/>
+      <c r="AL21" s="41"/>
+      <c r="AM21" s="41"/>
+      <c r="AN21" s="41"/>
+    </row>
+    <row r="22" spans="6:44">
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="41"/>
+      <c r="AK22" s="41"/>
+      <c r="AL22" s="41"/>
+      <c r="AM22" s="41"/>
+      <c r="AN22" s="41"/>
+    </row>
+    <row r="23" spans="6:44">
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+    </row>
+    <row r="24" spans="6:44">
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="41"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="41"/>
+      <c r="AK24" s="41"/>
+      <c r="AL24" s="41"/>
+      <c r="AM24" s="41"/>
+      <c r="AN24" s="41"/>
+    </row>
+    <row r="25" spans="6:44" ht="13.5" customHeight="1">
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="40"/>
+      <c r="AN25" s="40"/>
+    </row>
+    <row r="26" spans="6:44" ht="13.5" customHeight="1">
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="40"/>
+    </row>
+    <row r="27" spans="6:44" ht="13.5" customHeight="1">
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="40"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="40"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="40"/>
+      <c r="AN27" s="40"/>
+    </row>
+    <row r="28" spans="6:44" ht="13.5" customHeight="1">
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="41"/>
+      <c r="AG28" s="41"/>
+      <c r="AH28" s="41"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="41"/>
+      <c r="AK28" s="40"/>
+      <c r="AL28" s="40"/>
+      <c r="AM28" s="40"/>
+      <c r="AN28" s="40"/>
       <c r="AO28" s="6"/>
       <c r="AP28" s="6"/>
       <c r="AQ28" s="6"/>
       <c r="AR28" s="6"/>
     </row>
-    <row r="29" spans="15:44" ht="13.5" customHeight="1">
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AK29" s="6"/>
-      <c r="AL29" s="6"/>
-      <c r="AM29" s="6"/>
-      <c r="AN29" s="6"/>
+    <row r="29" spans="6:44" ht="13.5" customHeight="1">
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="41"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="41"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="41"/>
+      <c r="AK29" s="40"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="40"/>
+      <c r="AN29" s="40"/>
       <c r="AO29" s="6"/>
       <c r="AP29" s="6"/>
       <c r="AQ29" s="6"/>
       <c r="AR29" s="6"/>
     </row>
-    <row r="30" spans="15:44">
+    <row r="30" spans="6:44">
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AQ30" s="5"/>
       <c r="AR30" s="5"/>
     </row>
-    <row r="32" spans="15:44">
+    <row r="32" spans="6:44">
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
@@ -3713,13 +5392,7 @@
       <c r="AR35" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="V25:AC27"/>
-    <mergeCell ref="AG25:AN27"/>
-    <mergeCell ref="U10:AB12"/>
-    <mergeCell ref="O17:V19"/>
-    <mergeCell ref="AA17:AH19"/>
-    <mergeCell ref="H8:O10"/>
+  <mergeCells count="13">
     <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="L2:T2"/>
@@ -3729,7 +5402,6 @@
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="U4:AB6"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="L1:T1"/>
     <mergeCell ref="U1:AI1"/>

--- a/1.基本設計書/1.画面一覧・画面遷移図/画面遷移図.xlsx
+++ b/1.基本設計書/1.画面一覧・画面遷移図/画面遷移図.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24715"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FF6E757-0139-4328-96B4-733E6EC6F245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{245CFCD6-B477-4578-B010-3668430B2439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -265,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -284,6 +284,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -382,21 +385,6 @@
     <xf numFmtId="56" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -416,1178 +404,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="楕円 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D1F20A-BBD3-4B36-8401-3593877E4C2F}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2614852F-CB70-458E-AD0D-33669C66C762}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4038600" y="1028700"/>
-          <a:ext cx="133350" cy="123825"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="808080"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線コネクタ 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A239E1C9-B595-40BE-ADFF-4FDDC2E5242B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E9D1F20A-BBD3-4B36-8401-3593877E4C2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{E9D1F20A-BBD3-4B36-8401-3593877E4C2F}" end="{E9D1F20A-BBD3-4B36-8401-3593877E4C2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4114800" y="1114425"/>
-          <a:ext cx="0" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="808080"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842167CF-342B-47F7-9756-99EC935A5D39}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A239E1C9-B595-40BE-ADFF-4FDDC2E5242B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5038725" y="2276475"/>
-          <a:ext cx="9525" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="808080"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C57D1B-D078-40E1-B573-38EDF754CECA}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{842167CF-342B-47F7-9756-99EC935A5D39}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{BB5DC87F-43A2-4369-B63C-635C046002EE}" end="{FC1AC438-939B-4D50-9989-A3EB3978915E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3086100" y="2286000"/>
-          <a:ext cx="1971675" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="808080"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5BF9E3-4F7F-40D3-A235-626D04E90850}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{92C57D1B-D078-40E1-B573-38EDF754CECA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3105150" y="2257425"/>
-          <a:ext cx="0" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="808080"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="楕円 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC02B1F-84AA-4389-9B99-E6E1049F3BB4}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1A5BF9E3-4F7F-40D3-A235-626D04E90850}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5076825" y="3276600"/>
-          <a:ext cx="133350" cy="123825"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="808080"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B24F1B-079B-427F-9FAA-52D04821AB7D}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BDC02B1F-84AA-4389-9B99-E6E1049F3BB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4191000" y="3609975"/>
-          <a:ext cx="9525" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="808080"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線コネクタ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD5582F-348F-4F00-975B-973D5133E28B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{78B24F1B-079B-427F-9FAA-52D04821AB7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6105525" y="3629025"/>
-          <a:ext cx="9525" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="808080"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="楕円 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50369B90-736E-4564-B6E3-66E462861E99}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9AD5582F-348F-4F00-975B-973D5133E28B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3276600" y="695325"/>
-          <a:ext cx="133350" cy="123825"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="808080"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="楕円 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE806DE-FCB1-4CEB-B68B-1EC0CD6CAA26}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BBEE0FBC-A713-48CD-9132-5E0EDFA1D255}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4057650" y="2047875"/>
-          <a:ext cx="133350" cy="123825"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="808080"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3648B359-59F1-4CE9-A2B3-404F81C204F4}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DCE806DE-FCB1-4CEB-B68B-1EC0CD6CAA26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{DCE806DE-FCB1-4CEB-B68B-1EC0CD6CAA26}" end="{DCE806DE-FCB1-4CEB-B68B-1EC0CD6CAA26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4133850" y="2105025"/>
-          <a:ext cx="0" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="808080"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6199B4A-0156-4A7A-BDD1-6699286F0637}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8B293787-0DC7-4662-85ED-150645425EE7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{BB5DC87F-43A2-4369-B63C-635C046002EE}" end="{FC1AC438-939B-4D50-9989-A3EB3978915E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1876425" y="762000"/>
-          <a:ext cx="1495425" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="808080"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46167D6C-9A43-47B2-B7F8-D2285FA8089B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E6199B4A-0156-4A7A-BDD1-6699286F0637}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1905000" y="762000"/>
-          <a:ext cx="9525" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="808080"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線コネクタ 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11DA52CF-C448-4E45-AB6B-0516521E3595}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{46167D6C-9A43-47B2-B7F8-D2285FA8089B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{DCE806DE-FCB1-4CEB-B68B-1EC0CD6CAA26}" end="{BDC02B1F-84AA-4389-9B99-E6E1049F3BB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5153025" y="3362325"/>
-          <a:ext cx="0" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="808080"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2F52F2-06FB-4C3E-8901-218EDA893D7B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{11DA52CF-C448-4E45-AB6B-0516521E3595}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{BB5DC87F-43A2-4369-B63C-635C046002EE}" end="{FC1AC438-939B-4D50-9989-A3EB3978915E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4162425" y="3629025"/>
-          <a:ext cx="1971675" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="808080"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1673,26 +489,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="四角形 20">
+        <xdr:cNvPr id="23" name="四角形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD727C2-DB11-4201-8440-463C5D0A7205}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71056CEB-1BB3-4221-97FE-C4F10A985848}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{44AC0863-8946-415D-B263-BBBA900BEB35}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6FD727C2-DB11-4201-8440-463C5D0A7205}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +516,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1238250" y="1200150"/>
+          <a:off x="3429000" y="1190625"/>
           <a:ext cx="1362075" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1841,21 +657,7 @@
               <a:ea typeface="+mn-lt"/>
               <a:cs typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>顧客情報</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>登録画面</a:t>
+            <a:t>メインメニュー</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1864,26 +666,95 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="四角形 22">
+        <xdr:cNvPr id="4" name="屈折矢印 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71056CEB-1BB3-4221-97FE-C4F10A985848}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D053B2F2-2BF4-46CB-B744-A13A6AB99608}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6FD727C2-DB11-4201-8440-463C5D0A7205}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{50A5C685-22B5-4E68-A0CE-98C2C204C4D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1914525" y="695325"/>
+          <a:ext cx="1514475" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="808080"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="下矢印 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4593947E-3249-4C69-964F-C7FA768A784E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D053B2F2-2BF4-46CB-B744-A13A6AB99608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,7 +762,406 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="1543050"/>
+          <a:off x="4000500" y="1019175"/>
+          <a:ext cx="228600" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="808080"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="屈折矢印 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3A20EB-6C14-43D0-93E5-EAD34A2105CF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4593947E-3249-4C69-964F-C7FA768A784E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10743339">
+          <a:off x="2933700" y="2409825"/>
+          <a:ext cx="504825" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="808080"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="下矢印 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC57ECE-2101-43A6-96C4-34F4949ADCC7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{138D791F-B842-48A1-8E52-D9A1CADEED26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="1714500"/>
+          <a:ext cx="228600" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="808080"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="四角形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F045CFFF-FA62-403C-AF25-74A3D27BDAAE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8900F322-2A87-4BAB-8EE2-7F09288D8319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1200150"/>
           <a:ext cx="1362075" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2032,7 +1302,21 @@
               <a:ea typeface="+mn-lt"/>
               <a:cs typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>メインメニュー</a:t>
+            <a:t>顧客情報</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>登録画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2041,26 +1325,191 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="下矢印 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F73709E-C15F-43D2-AEF9-EDC6FBCD4116}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F045CFFF-FA62-403C-AF25-74A3D27BDAAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2962275" y="1095375"/>
+          <a:ext cx="228600" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="808080"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="四角形 23">
+        <xdr:cNvPr id="49" name="四角形 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7518C5-951D-475D-A267-137CEAC857E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE9BF45-5B80-47AA-9936-9DB22A2FDF42}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{71056CEB-1BB3-4221-97FE-C4F10A985848}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5F73709E-C15F-43D2-AEF9-EDC6FBCD4116}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +1517,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2409825" y="2762250"/>
+          <a:off x="3429000" y="2228850"/>
           <a:ext cx="1362075" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2223,7 +1672,7 @@
               <a:ea typeface="+mn-lt"/>
               <a:cs typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>登録画面</a:t>
+            <a:t>一覧・表示画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2232,26 +1681,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="四角形 24">
+        <xdr:cNvPr id="50" name="四角形 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A5C685-22B5-4E68-A0CE-98C2C204C4D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7D351A-010B-4980-9168-210A6B4EC7DD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EB7518C5-951D-475D-A267-137CEAC857E9}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2AE9BF45-5B80-47AA-9936-9DB22A2FDF42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +1708,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4457700" y="2743200"/>
+          <a:off x="2400300" y="3105150"/>
           <a:ext cx="1362075" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2414,7 +1863,7 @@
               <a:ea typeface="+mn-lt"/>
               <a:cs typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>一覧・表示画面</a:t>
+            <a:t>消去画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2423,26 +1872,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="四角形 27">
+        <xdr:cNvPr id="51" name="四角形 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0E33C0-2844-44BB-A49D-2AAA05A31123}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394B32D3-F7D5-4093-85F7-0EE9BC1E7C45}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{50A5C685-22B5-4E68-A0CE-98C2C204C4D4}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6C7D351A-010B-4980-9168-210A6B4EC7DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +1899,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3524250" y="4114800"/>
+          <a:off x="4457700" y="3105150"/>
           <a:ext cx="1362075" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2614,46 +2063,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="四角形 30">
+        <xdr:cNvPr id="52" name="屈折矢印 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C77EB7-5095-4675-AFA5-E026D895BF7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F321D4F-BFF0-420B-9D35-1E184D928811}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FD0E33C0-2844-44BB-A49D-2AAA05A31123}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{394B32D3-F7D5-4093-85F7-0EE9BC1E7C45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5429250" y="4152900"/>
-          <a:ext cx="1362075" cy="514350"/>
+        <a:xfrm rot="10743339" flipH="1">
+          <a:off x="4800600" y="2390775"/>
+          <a:ext cx="447675" cy="742950"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="bentUpArrow">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="808080"/>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2673,7 +2120,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -2772,32 +2219,8 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>顧客情報</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>消去画面</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3438,28 +2861,28 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="1"/>
@@ -3469,26 +2892,26 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="1"/>
@@ -3498,26 +2921,26 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="1"/>
@@ -3527,26 +2950,26 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="1"/>
@@ -3556,26 +2979,26 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="1"/>
@@ -3585,26 +3008,26 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="1"/>
@@ -3818,28 +3241,28 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="8" t="s">
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="11"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -3851,24 +3274,24 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="13"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="14"/>
       <c r="AA26" s="3"/>
     </row>
     <row r="27" spans="1:27">
@@ -3880,28 +3303,28 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="8" t="s">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="11"/>
       <c r="AA27" s="3"/>
     </row>
     <row r="28" spans="1:27">
@@ -3913,24 +3336,24 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="13"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="14"/>
       <c r="AA28" s="3"/>
     </row>
     <row r="29" spans="1:27">
@@ -3942,28 +3365,28 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="8" t="s">
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="11"/>
       <c r="AA29" s="3"/>
     </row>
     <row r="30" spans="1:27">
@@ -3975,24 +3398,24 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="13"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="14"/>
       <c r="AA30" s="3"/>
     </row>
     <row r="31" spans="1:27">
@@ -4004,28 +3427,28 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="15">
-        <v>44518</v>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="16">
+        <v>44519</v>
       </c>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="18"/>
       <c r="AA31" s="3"/>
     </row>
     <row r="32" spans="1:27">
@@ -4037,24 +3460,24 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="20"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="21"/>
       <c r="AA32" s="3"/>
     </row>
     <row r="33" spans="1:27">
@@ -4066,28 +3489,28 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="8" t="s">
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="11"/>
       <c r="AA33" s="3"/>
     </row>
     <row r="34" spans="1:27">
@@ -4099,24 +3522,24 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="13"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="14"/>
       <c r="AA34" s="3"/>
     </row>
     <row r="35" spans="1:27">
@@ -4128,28 +3551,28 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="15">
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="16">
         <v>44505</v>
       </c>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="18"/>
       <c r="AA35" s="3"/>
     </row>
     <row r="36" spans="1:27">
@@ -4161,24 +3584,24 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="20"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="21"/>
       <c r="AA36" s="3"/>
     </row>
   </sheetData>
@@ -4209,7 +3632,7 @@
   <dimension ref="A1:BQ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BA2" sqref="BA2:BF2"/>
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
@@ -4218,78 +3641,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="13.5" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="27" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="30" t="s">
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="27" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="33" t="s">
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="27" t="s">
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="33" t="s">
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="36"/>
       <c r="BG1" s="2"/>
       <c r="BH1" s="2"/>
       <c r="BI1" s="2"/>
@@ -4303,75 +3726,75 @@
       <c r="BQ1" s="2"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="27" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="39">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="40">
         <v>44505</v>
       </c>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="27" t="s">
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="39">
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="40">
         <f>表紙!O31</f>
-        <v>44518</v>
+        <v>44519</v>
       </c>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="34"/>
-      <c r="BE2" s="34"/>
-      <c r="BF2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="35"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="36"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2"/>
       <c r="BI2" s="2"/>
@@ -4467,14 +3890,14 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
     </row>
     <row r="5" spans="1:69" ht="13.5" customHeight="1">
       <c r="C5" s="6"/>
@@ -4488,24 +3911,24 @@
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1">
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1">
       <c r="Q7" s="7"/>
@@ -4518,840 +3941,307 @@
       <c r="X7" s="7"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1">
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="41"/>
-      <c r="AK8" s="41"/>
-      <c r="AL8" s="41"/>
-      <c r="AM8" s="41"/>
-      <c r="AN8" s="41"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
     </row>
     <row r="9" spans="1:69" ht="13.5" customHeight="1">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="41"/>
-      <c r="AL9" s="41"/>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="41"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:69" ht="13.5" customHeight="1">
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1">
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
     </row>
     <row r="12" spans="1:69" ht="13.5" customHeight="1">
       <c r="E12" s="6"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41"/>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="41"/>
-      <c r="AN12" s="41"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
     </row>
     <row r="13" spans="1:69" ht="13.5" customHeight="1">
       <c r="E13" s="6"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41"/>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="41"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:69" ht="13.5" customHeight="1">
       <c r="E14" s="6"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
-      <c r="AN14" s="41"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:69" ht="14.25" customHeight="1">
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="41"/>
-      <c r="AL15" s="41"/>
-      <c r="AM15" s="41"/>
-      <c r="AN15" s="41"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
     </row>
     <row r="16" spans="1:69" ht="14.25" customHeight="1">
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="41"/>
-      <c r="AM16" s="41"/>
-      <c r="AN16" s="41"/>
-    </row>
-    <row r="17" spans="6:44" ht="13.5" customHeight="1">
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="41"/>
-      <c r="AM17" s="41"/>
-      <c r="AN17" s="41"/>
-    </row>
-    <row r="18" spans="6:44" ht="13.5" customHeight="1">
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="40"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
-      <c r="AM18" s="41"/>
-      <c r="AN18" s="41"/>
-    </row>
-    <row r="19" spans="6:44" ht="13.5" customHeight="1">
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="40"/>
-      <c r="AG19" s="40"/>
-      <c r="AH19" s="40"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="41"/>
-      <c r="AN19" s="41"/>
-    </row>
-    <row r="20" spans="6:44">
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="41"/>
-      <c r="AK20" s="41"/>
-      <c r="AL20" s="41"/>
-      <c r="AM20" s="41"/>
-      <c r="AN20" s="41"/>
-    </row>
-    <row r="21" spans="6:44" ht="13.5" customHeight="1">
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41"/>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="41"/>
-      <c r="AN21" s="41"/>
-    </row>
-    <row r="22" spans="6:44">
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="41"/>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="41"/>
-      <c r="AM22" s="41"/>
-      <c r="AN22" s="41"/>
-    </row>
-    <row r="23" spans="6:44">
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-    </row>
-    <row r="24" spans="6:44">
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="41"/>
-      <c r="AK24" s="41"/>
-      <c r="AL24" s="41"/>
-      <c r="AM24" s="41"/>
-      <c r="AN24" s="41"/>
-    </row>
-    <row r="25" spans="6:44" ht="13.5" customHeight="1">
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="40"/>
-      <c r="AI25" s="40"/>
-      <c r="AJ25" s="40"/>
-      <c r="AK25" s="40"/>
-      <c r="AL25" s="40"/>
-      <c r="AM25" s="40"/>
-      <c r="AN25" s="40"/>
-    </row>
-    <row r="26" spans="6:44" ht="13.5" customHeight="1">
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="40"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
-    </row>
-    <row r="27" spans="6:44" ht="13.5" customHeight="1">
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="40"/>
-      <c r="AI27" s="40"/>
-      <c r="AJ27" s="40"/>
-      <c r="AK27" s="40"/>
-      <c r="AL27" s="40"/>
-      <c r="AM27" s="40"/>
-      <c r="AN27" s="40"/>
-    </row>
-    <row r="28" spans="6:44" ht="13.5" customHeight="1">
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="40"/>
-      <c r="AD28" s="40"/>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="41"/>
-      <c r="AH28" s="41"/>
-      <c r="AI28" s="41"/>
-      <c r="AJ28" s="41"/>
-      <c r="AK28" s="40"/>
-      <c r="AL28" s="40"/>
-      <c r="AM28" s="40"/>
-      <c r="AN28" s="40"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+    </row>
+    <row r="17" spans="15:44" ht="13.5" customHeight="1">
+      <c r="O17" s="8"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+    </row>
+    <row r="18" spans="15:44" ht="13.5" customHeight="1">
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+    </row>
+    <row r="19" spans="15:44" ht="13.5" customHeight="1">
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+    </row>
+    <row r="20" spans="15:44">
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+    </row>
+    <row r="21" spans="15:44" ht="13.5" customHeight="1"/>
+    <row r="25" spans="15:44" ht="13.5" customHeight="1">
+      <c r="V25" s="8"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+    </row>
+    <row r="26" spans="15:44" ht="13.5" customHeight="1">
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+    </row>
+    <row r="27" spans="15:44" ht="13.5" customHeight="1">
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+    </row>
+    <row r="28" spans="15:44" ht="13.5" customHeight="1">
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
       <c r="AO28" s="6"/>
       <c r="AP28" s="6"/>
       <c r="AQ28" s="6"/>
       <c r="AR28" s="6"/>
     </row>
-    <row r="29" spans="6:44" ht="13.5" customHeight="1">
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="40"/>
-      <c r="AD29" s="40"/>
-      <c r="AE29" s="41"/>
-      <c r="AF29" s="41"/>
-      <c r="AG29" s="41"/>
-      <c r="AH29" s="41"/>
-      <c r="AI29" s="41"/>
-      <c r="AJ29" s="41"/>
-      <c r="AK29" s="40"/>
-      <c r="AL29" s="40"/>
-      <c r="AM29" s="40"/>
-      <c r="AN29" s="40"/>
+    <row r="29" spans="15:44" ht="13.5" customHeight="1">
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
       <c r="AO29" s="6"/>
       <c r="AP29" s="6"/>
       <c r="AQ29" s="6"/>
       <c r="AR29" s="6"/>
     </row>
-    <row r="30" spans="6:44">
+    <row r="30" spans="15:44">
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AQ30" s="5"/>
       <c r="AR30" s="5"/>
     </row>
-    <row r="32" spans="6:44">
+    <row r="32" spans="15:44">
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
@@ -5393,7 +4283,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="U2:AI2"/>
@@ -5406,6 +4295,7 @@
     <mergeCell ref="L1:T1"/>
     <mergeCell ref="U1:AI1"/>
     <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>

--- a/1.基本設計書/1.画面一覧・画面遷移図/画面遷移図.xlsx
+++ b/1.基本設計書/1.画面一覧・画面遷移図/画面遷移図.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{245CFCD6-B477-4578-B010-3668430B2439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\1.画面一覧・画面遷移図\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3931E687-C841-48FF-9B7F-836EDB814F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12045" yWindow="30" windowWidth="16830" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -69,11 +74,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -82,32 +87,37 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="24"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -119,15 +129,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -307,25 +324,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -346,15 +393,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -363,27 +401,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,26 +423,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形 1">
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AC0863-8946-415D-B263-BBBA900BEB35}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CD2F52F2-06FB-4C3E-8901-218EDA893D7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE30C08-8B22-4C1F-B8C5-B7AF7035BB38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -433,18 +447,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="495300"/>
-          <a:ext cx="1362075" cy="514350"/>
+          <a:off x="342900" y="628650"/>
+          <a:ext cx="1371599" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -465,20 +479,15 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
             </a:rPr>
             <a:t>ログイン画面</a:t>
           </a:r>
@@ -489,221 +498,48 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52386</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="四角形 22">
+        <xdr:cNvPr id="76" name="矢印: 右 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71056CEB-1BB3-4221-97FE-C4F10A985848}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6FD727C2-DB11-4201-8440-463C5D0A7205}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E07B69-9032-499C-8411-5BFF87469371}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="1190625"/>
-          <a:ext cx="1362075" cy="514350"/>
+        <a:xfrm rot="5400000">
+          <a:off x="614361" y="1547813"/>
+          <a:ext cx="833437" cy="242888"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26471"/>
+            <a:gd name="adj2" fmla="val 46078"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>メインメニュー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="屈折矢印 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D053B2F2-2BF4-46CB-B744-A13A6AB99608}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{50A5C685-22B5-4E68-A0CE-98C2C204C4D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="1914525" y="695325"/>
-          <a:ext cx="1514475" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentUpArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="808080"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -727,7 +563,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -735,26 +571,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>80964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="下矢印 5">
+        <xdr:cNvPr id="77" name="矢印: 右 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4593947E-3249-4C69-964F-C7FA768A784E}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D053B2F2-2BF4-46CB-B744-A13A6AB99608}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FEEAFD-487B-4A9B-9C59-89A94569D6B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -762,17 +595,24 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="1019175"/>
-          <a:ext cx="228600" cy="171450"/>
+          <a:off x="1714500" y="709614"/>
+          <a:ext cx="1028700" cy="242886"/>
         </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26471"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="808080"/>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -796,7 +636,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -804,375 +644,47 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>55639</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>18997</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>118071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="屈折矢印 31">
+        <xdr:cNvPr id="79" name="矢印: 右 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3A20EB-6C14-43D0-93E5-EAD34A2105CF}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4593947E-3249-4C69-964F-C7FA768A784E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131163F5-61CA-4524-BA1E-354AEB5157F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10743339">
-          <a:off x="2933700" y="2409825"/>
-          <a:ext cx="504825" cy="685800"/>
+        <a:xfrm rot="19565956">
+          <a:off x="1598689" y="1684933"/>
+          <a:ext cx="1677858" cy="319088"/>
         </a:xfrm>
-        <a:prstGeom prst="bentUpArrow">
-          <a:avLst/>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26471"/>
+            <a:gd name="adj2" fmla="val 46078"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="808080"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="下矢印 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC57ECE-2101-43A6-96C4-34F4949ADCC7}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{138D791F-B842-48A1-8E52-D9A1CADEED26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="1714500"/>
-          <a:ext cx="228600" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="808080"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="四角形 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F045CFFF-FA62-403C-AF25-74A3D27BDAAE}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8900F322-2A87-4BAB-8EE2-7F09288D8319}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="1200150"/>
-          <a:ext cx="1362075" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1193,131 +705,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>顧客情報</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>登録画面</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1325,210 +717,47 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41558</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>39989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>2321</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111427</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="下矢印 47">
+        <xdr:cNvPr id="80" name="矢印: 右 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F73709E-C15F-43D2-AEF9-EDC6FBCD4116}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F045CFFF-FA62-403C-AF25-74A3D27BDAAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEFF0717-6782-45B9-81BF-CAEF8137A306}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2962275" y="1095375"/>
-          <a:ext cx="228600" cy="695325"/>
+        <a:xfrm rot="8712881">
+          <a:off x="1584608" y="1925939"/>
+          <a:ext cx="1846713" cy="280988"/>
         </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26471"/>
+            <a:gd name="adj2" fmla="val 46078"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="808080"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="四角形 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE9BF45-5B80-47AA-9936-9DB22A2FDF42}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5F73709E-C15F-43D2-AEF9-EDC6FBCD4116}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="2228850"/>
-          <a:ext cx="1362075" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1549,131 +778,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>顧客情報</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>一覧・表示画面</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1681,45 +790,47 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52386</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="四角形 49">
+        <xdr:cNvPr id="83" name="矢印: 右 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7D351A-010B-4980-9168-210A6B4EC7DD}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2AE9BF45-5B80-47AA-9936-9DB22A2FDF42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F08470D-702A-4E52-B3DB-9E6EFE687129}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2400300" y="3105150"/>
-          <a:ext cx="1362075" cy="514350"/>
+        <a:xfrm rot="5400000">
+          <a:off x="821530" y="2812256"/>
+          <a:ext cx="419100" cy="242888"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26471"/>
+            <a:gd name="adj2" fmla="val 46078"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1740,131 +851,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>顧客情報</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>消去画面</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1872,45 +863,47 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="四角形 50">
+        <xdr:cNvPr id="89" name="矢印: 右 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394B32D3-F7D5-4093-85F7-0EE9BC1E7C45}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6C7D351A-010B-4980-9168-210A6B4EC7DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A5D87B-8070-49DE-A0C7-4B48371946FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4457700" y="3105150"/>
-          <a:ext cx="1362075" cy="514350"/>
+        <a:xfrm rot="10800000">
+          <a:off x="1714500" y="914400"/>
+          <a:ext cx="1028700" cy="242886"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26471"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1931,131 +924,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>顧客情報</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>編集画面</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2063,44 +936,43 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="屈折矢印 51">
+        <xdr:cNvPr id="91" name="正方形/長方形 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F321D4F-BFF0-420B-9D35-1E184D928811}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{394B32D3-F7D5-4093-85F7-0EE9BC1E7C45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE4C2B1-9D78-4D87-81BB-0384A4FBC4F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10743339" flipH="1">
-          <a:off x="4800600" y="2390775"/>
-          <a:ext cx="447675" cy="742950"/>
+        <a:xfrm>
+          <a:off x="2743200" y="628650"/>
+          <a:ext cx="1371599" cy="628650"/>
         </a:xfrm>
-        <a:prstGeom prst="bentUpArrow">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="808080"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2120,107 +992,560 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>顧客情報</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>追加画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="正方形/長方形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A774DD3-FFE4-4052-837C-1795D06BABA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="2095500"/>
+          <a:ext cx="1371599" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メインメニュー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="正方形/長方形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CCDD5A-2C01-4EE8-B179-DD82642C05F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="3143250"/>
+          <a:ext cx="1371599" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
+            </a:rPr>
+            <a:t>顧客情報</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
+            </a:rPr>
+            <a:t>一覧・表示画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="矢印: 右 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B237AF45-8306-4ACA-8810-C384211C0184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="816769" y="3860006"/>
+          <a:ext cx="419100" cy="242888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26471"/>
+            <a:gd name="adj2" fmla="val 46078"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="正方形/長方形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C14B520-900F-4180-9069-5EBFF7FCCB44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="4191000"/>
+          <a:ext cx="1371599" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>顧客情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>消去画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>103393</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>147049</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>181926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="矢印: 右 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15AD45F-DD8D-4079-BAE3-D2D92F15848D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2198545">
+          <a:off x="1646443" y="3703306"/>
+          <a:ext cx="1072356" cy="250520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26471"/>
+            <a:gd name="adj2" fmla="val 46078"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="正方形/長方形 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E776F2BF-0A78-4FA7-AC35-BE2753D86025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="4191000"/>
+          <a:ext cx="1371599" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>顧客情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>編集画面</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2230,7 +1555,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2528,13 +1853,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E9012C-2134-4377-B2E3-8016B874B93B}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O33" sqref="O33:Z34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2563,7 +1888,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2592,7 +1917,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2621,7 +1946,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2650,7 +1975,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2679,7 +2004,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2708,7 +2033,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2737,7 +2062,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2766,7 +2091,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2795,7 +2120,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2824,7 +2149,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2853,7 +2178,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2861,30 +2186,30 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2892,28 +2217,28 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2921,28 +2246,28 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2950,28 +2275,28 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2979,28 +2304,28 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3008,28 +2333,28 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3058,7 +2383,7 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3087,7 +2412,7 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3116,7 +2441,7 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3145,7 +2470,7 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3174,7 +2499,7 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3203,7 +2528,7 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3232,7 +2557,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3265,7 +2590,7 @@
       <c r="Z25" s="11"/>
       <c r="AA25" s="3"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3294,7 +2619,7 @@
       <c r="Z26" s="14"/>
       <c r="AA26" s="3"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3327,7 +2652,7 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="3"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3356,7 +2681,7 @@
       <c r="Z28" s="14"/>
       <c r="AA28" s="3"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3389,7 +2714,7 @@
       <c r="Z29" s="11"/>
       <c r="AA29" s="3"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3418,7 +2743,7 @@
       <c r="Z30" s="14"/>
       <c r="AA30" s="3"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3435,23 +2760,23 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="16">
-        <v>44519</v>
+      <c r="O31" s="15">
+        <v>44522</v>
       </c>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="18"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="17"/>
       <c r="AA31" s="3"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3466,21 +2791,21 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="14"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="21"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="20"/>
       <c r="AA32" s="3"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3513,7 +2838,7 @@
       <c r="Z33" s="11"/>
       <c r="AA33" s="3"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3542,7 +2867,7 @@
       <c r="Z34" s="14"/>
       <c r="AA34" s="3"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3559,23 +2884,23 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="16">
+      <c r="O35" s="15">
         <v>44505</v>
       </c>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="18"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="17"/>
       <c r="AA35" s="3"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3590,28 +2915,22 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="14"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="21"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="20"/>
       <c r="AA36" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I31:N32"/>
-    <mergeCell ref="O31:Z32"/>
-    <mergeCell ref="I33:N34"/>
-    <mergeCell ref="O33:Z34"/>
-    <mergeCell ref="I35:N36"/>
-    <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="H12:AA17"/>
@@ -3619,8 +2938,16 @@
     <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I27:N28"/>
     <mergeCell ref="O27:Z28"/>
+    <mergeCell ref="I31:N32"/>
+    <mergeCell ref="O31:Z32"/>
+    <mergeCell ref="I33:N34"/>
+    <mergeCell ref="O33:Z34"/>
+    <mergeCell ref="I35:N36"/>
+    <mergeCell ref="O35:Z36"/>
   </mergeCells>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3632,87 +2959,87 @@
   <dimension ref="A1:BQ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AM12" sqref="AM12"/>
+      <selection activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="2.25" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="13.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="28" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="31" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="28" t="s">
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="34" t="s">
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="28" t="s">
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AW1" s="29"/>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="34" t="s">
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="36"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="24"/>
       <c r="BG1" s="2"/>
       <c r="BH1" s="2"/>
       <c r="BI1" s="2"/>
@@ -3725,76 +3052,76 @@
       <c r="BP1" s="2"/>
       <c r="BQ1" s="2"/>
     </row>
-    <row r="2" spans="1:69" ht="13.5" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28" t="s">
+    <row r="2" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="28" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="40">
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="31">
         <v>44505</v>
       </c>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="28" t="s">
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="40">
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="31">
         <f>表紙!O31</f>
-        <v>44519</v>
+        <v>44522</v>
       </c>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="36"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="24"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2"/>
       <c r="BI2" s="2"/>
@@ -3807,7 +3134,7 @@
       <c r="BP2" s="2"/>
       <c r="BQ2" s="2"/>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3878,7 +3205,7 @@
       <c r="BP3" s="2"/>
       <c r="BQ3" s="2"/>
     </row>
-    <row r="4" spans="1:69" ht="13.5" customHeight="1">
+    <row r="4" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3899,7 +3226,7 @@
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
     </row>
-    <row r="5" spans="1:69" ht="13.5" customHeight="1">
+    <row r="5" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -3920,7 +3247,7 @@
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
     </row>
-    <row r="6" spans="1:69" ht="13.5" customHeight="1">
+    <row r="6" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -3930,7 +3257,7 @@
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
     </row>
-    <row r="7" spans="1:69" ht="13.5" customHeight="1">
+    <row r="7" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -3940,7 +3267,7 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
     </row>
-    <row r="8" spans="1:69" ht="13.5" customHeight="1">
+    <row r="8" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G8" s="5"/>
       <c r="H8" s="8"/>
       <c r="I8" s="6"/>
@@ -3959,7 +3286,7 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
     </row>
-    <row r="9" spans="1:69" ht="13.5" customHeight="1">
+    <row r="9" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -3974,7 +3301,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:69" ht="13.5" customHeight="1">
+    <row r="10" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -3992,7 +3319,7 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
     </row>
-    <row r="11" spans="1:69" ht="13.5" customHeight="1">
+    <row r="11" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -4002,7 +3329,7 @@
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
     </row>
-    <row r="12" spans="1:69" ht="13.5" customHeight="1">
+    <row r="12" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -4020,7 +3347,7 @@
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
     </row>
-    <row r="13" spans="1:69" ht="13.5" customHeight="1">
+    <row r="13" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -4030,7 +3357,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:69" ht="13.5" customHeight="1">
+    <row r="14" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -4040,7 +3367,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:69" ht="14.25" customHeight="1">
+    <row r="15" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -4058,7 +3385,7 @@
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
     </row>
-    <row r="16" spans="1:69" ht="14.25" customHeight="1">
+    <row r="16" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -4076,7 +3403,7 @@
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
     </row>
-    <row r="17" spans="15:44" ht="13.5" customHeight="1">
+    <row r="17" spans="15:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O17" s="8"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -4094,7 +3421,7 @@
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
     </row>
-    <row r="18" spans="15:44" ht="13.5" customHeight="1">
+    <row r="18" spans="15:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -4112,7 +3439,7 @@
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
     </row>
-    <row r="19" spans="15:44" ht="13.5" customHeight="1">
+    <row r="19" spans="15:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -4134,7 +3461,7 @@
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
     </row>
-    <row r="20" spans="15:44">
+    <row r="20" spans="15:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
@@ -4144,8 +3471,7 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="15:44" ht="13.5" customHeight="1"/>
-    <row r="25" spans="15:44" ht="13.5" customHeight="1">
+    <row r="25" spans="15:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="V25" s="8"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
@@ -4163,7 +3489,7 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6"/>
     </row>
-    <row r="26" spans="15:44" ht="13.5" customHeight="1">
+    <row r="26" spans="15:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
@@ -4181,7 +3507,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6"/>
     </row>
-    <row r="27" spans="15:44" ht="13.5" customHeight="1">
+    <row r="27" spans="15:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
@@ -4199,7 +3525,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6"/>
     </row>
-    <row r="28" spans="15:44" ht="13.5" customHeight="1">
+    <row r="28" spans="15:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
@@ -4217,7 +3543,7 @@
       <c r="AQ28" s="6"/>
       <c r="AR28" s="6"/>
     </row>
-    <row r="29" spans="15:44" ht="13.5" customHeight="1">
+    <row r="29" spans="15:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
@@ -4235,13 +3561,13 @@
       <c r="AQ29" s="6"/>
       <c r="AR29" s="6"/>
     </row>
-    <row r="30" spans="15:44">
+    <row r="30" spans="15:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AQ30" s="5"/>
       <c r="AR30" s="5"/>
     </row>
-    <row r="32" spans="15:44">
+    <row r="32" spans="15:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
@@ -4255,7 +3581,7 @@
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
     </row>
-    <row r="33" spans="23:44">
+    <row r="33" spans="23:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
@@ -4273,7 +3599,7 @@
       <c r="AQ33" s="5"/>
       <c r="AR33" s="5"/>
     </row>
-    <row r="35" spans="23:44">
+    <row r="35" spans="23:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
@@ -4283,6 +3609,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="U2:AI2"/>
@@ -4291,14 +3622,10 @@
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1.基本設計書/1.画面一覧・画面遷移図/画面遷移図.xlsx
+++ b/1.基本設計書/1.画面一覧・画面遷移図/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\1.画面一覧・画面遷移図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3931E687-C841-48FF-9B7F-836EDB814F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F2607-3395-421E-8FD0-62CF7B7201B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12045" yWindow="30" windowWidth="16830" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -324,6 +324,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -342,8 +345,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,15 +390,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -374,33 +401,6 @@
     </xf>
     <xf numFmtId="56" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,16 +423,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -447,7 +447,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="628650"/>
+          <a:off x="1514475" y="657225"/>
           <a:ext cx="1371599" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -498,16 +498,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>52386</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>204788</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -522,7 +522,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="614361" y="1547813"/>
+          <a:off x="1785936" y="1576388"/>
           <a:ext cx="833437" cy="242888"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -571,16 +571,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>80964</xdr:rowOff>
+      <xdr:rowOff>109539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -595,299 +595,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="709614"/>
-          <a:ext cx="1028700" cy="242886"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 26471"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>55639</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>8533</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>18997</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>118071</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="矢印: 右 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131163F5-61CA-4524-BA1E-354AEB5157F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="19565956">
-          <a:off x="1598689" y="1684933"/>
-          <a:ext cx="1677858" cy="319088"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 26471"/>
-            <a:gd name="adj2" fmla="val 46078"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>41558</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>39989</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>2321</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>111427</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="矢印: 右 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEFF0717-6782-45B9-81BF-CAEF8137A306}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="8712881">
-          <a:off x="1584608" y="1925939"/>
-          <a:ext cx="1846713" cy="280988"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 26471"/>
-            <a:gd name="adj2" fmla="val 46078"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>52386</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="矢印: 右 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F08470D-702A-4E52-B3DB-9E6EFE687129}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="821530" y="2812256"/>
-          <a:ext cx="419100" cy="242888"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 26471"/>
-            <a:gd name="adj2" fmla="val 46078"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="矢印: 右 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A5D87B-8070-49DE-A0C7-4B48371946FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="1714500" y="914400"/>
+          <a:off x="2886075" y="738189"/>
           <a:ext cx="1028700" cy="242886"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -937,15 +645,307 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>27064</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>161872</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>146646</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="矢印: 右 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131163F5-61CA-4524-BA1E-354AEB5157F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19565956">
+          <a:off x="2770264" y="1713508"/>
+          <a:ext cx="1677858" cy="319088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26471"/>
+            <a:gd name="adj2" fmla="val 46078"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12983</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>145196</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140002</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="矢印: 右 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEFF0717-6782-45B9-81BF-CAEF8137A306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8712881">
+          <a:off x="2756183" y="1954514"/>
+          <a:ext cx="1846713" cy="280988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26471"/>
+            <a:gd name="adj2" fmla="val 46078"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="矢印: 右 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F08470D-702A-4E52-B3DB-9E6EFE687129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1993105" y="2840831"/>
+          <a:ext cx="419100" cy="242888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26471"/>
+            <a:gd name="adj2" fmla="val 46078"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="矢印: 右 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A5D87B-8070-49DE-A0C7-4B48371946FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2886075" y="942975"/>
+          <a:ext cx="1028700" cy="242886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26471"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -960,7 +960,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="628650"/>
+          <a:off x="3914775" y="657225"/>
           <a:ext cx="1371599" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1036,16 +1036,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1060,7 +1060,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="2095500"/>
+          <a:off x="1514475" y="2124075"/>
           <a:ext cx="1371599" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1111,16 +1111,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1135,7 +1135,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="3143250"/>
+          <a:off x="1514475" y="3171825"/>
           <a:ext cx="1371599" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1225,16 +1225,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1249,7 +1249,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="816769" y="3860006"/>
+          <a:off x="1988344" y="3888581"/>
           <a:ext cx="419100" cy="242888"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -1298,16 +1298,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1322,7 +1322,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="4191000"/>
+          <a:off x="1514475" y="4219575"/>
           <a:ext cx="1371599" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1389,16 +1389,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>103393</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74818</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>140956</xdr:rowOff>
+      <xdr:rowOff>169531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>147049</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>181926</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>118474</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>951</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1413,7 +1413,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="2198545">
-          <a:off x="1646443" y="3703306"/>
+          <a:off x="2818018" y="3731881"/>
           <a:ext cx="1072356" cy="250520"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -1462,16 +1462,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1486,7 +1486,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="4191000"/>
+          <a:off x="3228975" y="4219575"/>
           <a:ext cx="1371599" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1546,6 +1546,86 @@
             </a:rPr>
             <a:t>編集画面</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>120397</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: U ターン 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902803B1-D91A-4432-89B7-AFA37F81E030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="42864" y="3176587"/>
+          <a:ext cx="2330196" cy="568071"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 19970"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+            <a:gd name="adj4" fmla="val 43750"/>
+            <a:gd name="adj5" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1853,7 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E9012C-2134-4377-B2E3-8016B874B93B}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O33" sqref="O33:Z34"/>
     </sheetView>
   </sheetViews>
@@ -2186,28 +2266,28 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
@@ -2217,26 +2297,26 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
@@ -2246,26 +2326,26 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -2275,26 +2355,26 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -2304,26 +2384,26 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
@@ -2333,26 +2413,26 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
@@ -2760,20 +2840,20 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="15">
+      <c r="O31" s="16">
         <v>44522</v>
       </c>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="18"/>
       <c r="AA31" s="3"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2791,18 +2871,18 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="14"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="20"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="21"/>
       <c r="AA32" s="3"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2884,20 +2964,20 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="15">
+      <c r="O35" s="16">
         <v>44505</v>
       </c>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="18"/>
       <c r="AA35" s="3"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2915,22 +2995,28 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="14"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="20"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="21"/>
       <c r="AA36" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I31:N32"/>
+    <mergeCell ref="O31:Z32"/>
+    <mergeCell ref="I33:N34"/>
+    <mergeCell ref="O33:Z34"/>
+    <mergeCell ref="I35:N36"/>
+    <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="H12:AA17"/>
@@ -2938,12 +3024,6 @@
     <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I27:N28"/>
     <mergeCell ref="O27:Z28"/>
-    <mergeCell ref="I31:N32"/>
-    <mergeCell ref="O31:Z32"/>
-    <mergeCell ref="I33:N34"/>
-    <mergeCell ref="O33:Z34"/>
-    <mergeCell ref="I35:N36"/>
-    <mergeCell ref="O35:Z36"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2958,8 +3038,8 @@
   </sheetPr>
   <dimension ref="A1:BQ35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AP14" sqref="AP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2968,78 +3048,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="38" t="s">
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="25" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="22" t="s">
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="25" t="s">
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="22" t="s">
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="24"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="36"/>
       <c r="BG1" s="2"/>
       <c r="BH1" s="2"/>
       <c r="BI1" s="2"/>
@@ -3053,75 +3133,75 @@
       <c r="BQ1" s="2"/>
     </row>
     <row r="2" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="25" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="25" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="31">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="40">
         <v>44505</v>
       </c>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="25" t="s">
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="31">
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="40">
         <f>表紙!O31</f>
         <v>44522</v>
       </c>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="24"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="35"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="36"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2"/>
       <c r="BI2" s="2"/>
@@ -3609,11 +3689,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="U2:AI2"/>
@@ -3622,6 +3697,11 @@
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
     <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/1.画面一覧・画面遷移図/画面遷移図.xlsx
+++ b/1.基本設計書/1.画面一覧・画面遷移図/画面遷移図.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\1.画面一覧・画面遷移図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288266F6-0E48-4344-B363-DEA2533515B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595BF372-FBA2-4A00-80E6-A329CF61CD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10455" yWindow="15" windowWidth="18345" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10440" yWindow="30" windowWidth="18210" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="画面遷移図" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面遷移図!$A$1:$BF$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$38</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -123,7 +127,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -324,9 +328,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,6 +344,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -363,15 +397,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -380,27 +405,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17078,8 +17082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E9012C-2134-4377-B2E3-8016B874B93B}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="D31:E31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AX34" sqref="AX34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17411,28 +17415,28 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
@@ -17442,26 +17446,26 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
@@ -17471,26 +17475,26 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -17500,26 +17504,26 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -17529,26 +17533,26 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
@@ -17558,26 +17562,26 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
@@ -17985,20 +17989,20 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="16">
+      <c r="O31" s="15">
         <v>44524</v>
       </c>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="18"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="17"/>
       <c r="AA31" s="3"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -18016,18 +18020,18 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="14"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="21"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="20"/>
       <c r="AA32" s="3"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -18109,20 +18113,20 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="16">
+      <c r="O35" s="15">
         <v>44505</v>
       </c>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="18"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="17"/>
       <c r="AA35" s="3"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -18140,28 +18144,22 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="14"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="21"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="20"/>
       <c r="AA36" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I31:N32"/>
-    <mergeCell ref="O31:Z32"/>
-    <mergeCell ref="I33:N34"/>
-    <mergeCell ref="O33:Z34"/>
-    <mergeCell ref="I35:N36"/>
-    <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="H12:AA17"/>
@@ -18169,6 +18167,12 @@
     <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I27:N28"/>
     <mergeCell ref="O27:Z28"/>
+    <mergeCell ref="I31:N32"/>
+    <mergeCell ref="O31:Z32"/>
+    <mergeCell ref="I33:N34"/>
+    <mergeCell ref="O33:Z34"/>
+    <mergeCell ref="I35:N36"/>
+    <mergeCell ref="O35:Z36"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18183,8 +18187,8 @@
   </sheetPr>
   <dimension ref="A1:BQ35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AV15" sqref="AV15"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BJ23" sqref="BJ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -18193,78 +18197,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="28" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="31" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="28" t="s">
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="34" t="s">
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="28" t="s">
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AW1" s="29"/>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="34" t="s">
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="36"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="24"/>
       <c r="BG1" s="2"/>
       <c r="BH1" s="2"/>
       <c r="BI1" s="2"/>
@@ -18278,75 +18282,75 @@
       <c r="BQ1" s="2"/>
     </row>
     <row r="2" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="28" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="40">
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="31">
         <v>44505</v>
       </c>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="28" t="s">
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="40">
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="31">
         <f>表紙!O31</f>
         <v>44524</v>
       </c>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="36"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="24"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2"/>
       <c r="BI2" s="2"/>
@@ -18834,6 +18838,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="U2:AI2"/>
@@ -18842,11 +18851,6 @@
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
